--- a/R Programming/Practical Program List.xlsx
+++ b/R Programming/Practical Program List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCA-001\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThamilMani\Learning-Programming-\R Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -449,12 +449,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -477,6 +471,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,13 +774,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -800,10 +800,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -813,8 +813,8 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="7">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -824,8 +824,8 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="7">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -835,8 +835,8 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="7">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -846,8 +846,8 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="7">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -857,100 +857,100 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="7">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="7">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>9</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="7">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="7">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="7">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5">
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -960,8 +960,8 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="7">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -971,8 +971,8 @@
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="7">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -982,8 +982,8 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="7">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -993,8 +993,8 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="7">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1004,30 +1004,30 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="7">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5">
         <v>19</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="7">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5">
         <v>20</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="7">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1037,8 +1037,8 @@
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="7">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1048,8 +1048,8 @@
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1059,19 +1059,19 @@
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5">
         <v>24</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="7">
+      <c r="A27" s="9"/>
+      <c r="B27" s="5">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1081,8 +1081,8 @@
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="7">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1092,8 +1092,8 @@
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="7">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1103,8 +1103,8 @@
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1114,10 +1114,10 @@
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="8">
         <v>4</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="5">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -1127,8 +1127,8 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="7">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1138,8 +1138,8 @@
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1149,8 +1149,8 @@
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7">
+      <c r="A34" s="10"/>
+      <c r="B34" s="5">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1160,10 +1160,10 @@
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>5</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="5">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1173,8 +1173,8 @@
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="7">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -1184,8 +1184,8 @@
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
-      <c r="B37" s="7">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -1195,8 +1195,8 @@
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="7">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -1206,8 +1206,8 @@
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="7">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5">
         <v>37</v>
       </c>
       <c r="C39" s="3"/>
@@ -1215,8 +1215,8 @@
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7">
+      <c r="A40" s="10"/>
+      <c r="B40" s="5">
         <v>38</v>
       </c>
       <c r="C40" s="3"/>

--- a/R Programming/Practical Program List.xlsx
+++ b/R Programming/Practical Program List.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThamilMani\Learning-Programming-\R Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>S.No</t>
   </si>
@@ -293,6 +296,78 @@
   <si>
     <t>Features of Numpy , Mean , Median , Mode and Correlation Coefficient using Numpy of Python.</t>
   </si>
+  <si>
+    <t>Poisson Distribution Using R and Python</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Assign To</t>
+  </si>
+  <si>
+    <t>Pavish</t>
+  </si>
+  <si>
+    <t>Sabarish</t>
+  </si>
+  <si>
+    <t>Kathir</t>
+  </si>
+  <si>
+    <t>Mani, Diva</t>
+  </si>
+  <si>
+    <t>gopi</t>
+  </si>
+  <si>
+    <t>Mithun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dharshan </t>
+  </si>
+  <si>
+    <t>Rigen &amp;
+Saran</t>
+  </si>
+  <si>
+    <t>Kavin</t>
+  </si>
+  <si>
+    <t>Mukesh</t>
+  </si>
+  <si>
+    <t>Time Series Analaysis : 
+i) Moving Average
+ii) Auto Correlation &amp; Partial Auto Correlation
+iii) ARIMA For Forecast
+iv) Find (p,d,q) for fitting suitable ARIMA For least  Mean square Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Random Forest using Python </t>
+  </si>
+  <si>
+    <t>Abishek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree : 
+i) Decision Tree Using Python
+ii) Decision Tree Using R
+iii) Hierachical Cluster Using R </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chi - square Test
+i) Chi - square Test for single vector
+ii) Chi - square Test for two-dimensional vector
+iii) Chi - square Test Using R</t>
+  </si>
+  <si>
+    <t>Survival Analysis : 
+Survival Analysis Using R
+Survival Analysis Using Python
+i) vector Data
+ii) Data From CSV</t>
+  </si>
 </sst>
 </file>
 
@@ -337,7 +412,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -349,43 +424,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -434,11 +472,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -461,23 +519,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,19 +846,22 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="147.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -798,8 +877,11 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -809,10 +891,17 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="5">
         <v>2</v>
@@ -820,10 +909,15 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="5">
         <v>3</v>
@@ -831,10 +925,15 @@
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="5">
         <v>4</v>
@@ -842,10 +941,15 @@
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="5">
         <v>5</v>
@@ -853,10 +957,15 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="5">
         <v>6</v>
@@ -864,10 +973,17 @@
       <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="5">
         <v>7</v>
@@ -875,10 +991,15 @@
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="5">
         <v>8</v>
@@ -886,10 +1007,17 @@
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -899,10 +1027,15 @@
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="5">
         <v>10</v>
@@ -910,10 +1043,17 @@
       <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="5">
         <v>11</v>
@@ -921,10 +1061,15 @@
       <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="5">
         <v>12</v>
@@ -932,10 +1077,17 @@
       <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="5">
         <v>13</v>
@@ -943,10 +1095,15 @@
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3</v>
       </c>
@@ -956,10 +1113,17 @@
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="5">
         <v>15</v>
@@ -967,10 +1131,15 @@
       <c r="C17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="5">
         <v>16</v>
@@ -978,10 +1147,15 @@
       <c r="C18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="5">
         <v>17</v>
@@ -989,10 +1163,15 @@
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>18</v>
@@ -1000,10 +1179,15 @@
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="5">
         <v>19</v>
@@ -1011,10 +1195,17 @@
       <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="5">
         <v>20</v>
@@ -1022,10 +1213,17 @@
       <c r="C22" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="5">
         <v>21</v>
@@ -1033,10 +1231,15 @@
       <c r="C23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="5">
         <v>22</v>
@@ -1044,10 +1247,15 @@
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="5">
         <v>23</v>
@@ -1055,10 +1263,17 @@
       <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="5">
         <v>24</v>
@@ -1068,8 +1283,9 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="B27" s="5">
         <v>25</v>
@@ -1079,8 +1295,9 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="5">
         <v>26</v>
@@ -1090,8 +1307,11 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="5">
         <v>27</v>
@@ -1101,8 +1321,11 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="5">
         <v>28</v>
@@ -1112,8 +1335,9 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>4</v>
       </c>
@@ -1123,10 +1347,17 @@
       <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="B32" s="5">
         <v>30</v>
@@ -1136,8 +1367,9 @@
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="5">
         <v>31</v>
@@ -1147,8 +1379,9 @@
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="5">
         <v>32</v>
@@ -1158,8 +1391,9 @@
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>5</v>
       </c>
@@ -1171,8 +1405,9 @@
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="5">
         <v>34</v>
@@ -1182,8 +1417,9 @@
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="5">
         <v>35</v>
@@ -1193,8 +1429,9 @@
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="5">
         <v>36</v>
@@ -1204,29 +1441,151 @@
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="5">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
       <c r="B40" s="5">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="3">
+        <v>39</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="3">
+        <v>40</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="3">
+        <v>42</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="15">
+    <mergeCell ref="A35:A51"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A30"/>

--- a/R Programming/Practical Program List.xlsx
+++ b/R Programming/Practical Program List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MCA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning-Programming-\R Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t>S.No</t>
   </si>
@@ -367,6 +367,24 @@
 Survival Analysis Using Python
 i) vector Data
 ii) Data From CSV</t>
+  </si>
+  <si>
+    <t>Rigen</t>
+  </si>
+  <si>
+    <t>Saran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index Page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mithilan </t>
+  </si>
+  <si>
+    <t>Piere</t>
   </si>
 </sst>
 </file>
@@ -519,6 +537,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,26 +561,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,19 +865,19 @@
     <col min="2" max="2" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="147.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -877,12 +895,12 @@
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
       <c r="B3" s="5">
@@ -902,7 +920,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5">
         <v>2</v>
       </c>
@@ -915,10 +933,10 @@
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="17"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="5">
         <v>3</v>
       </c>
@@ -931,10 +949,10 @@
       <c r="E5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="17"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5">
         <v>4</v>
       </c>
@@ -947,10 +965,10 @@
       <c r="E6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5">
         <v>5</v>
       </c>
@@ -963,10 +981,10 @@
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="5">
         <v>6</v>
       </c>
@@ -984,7 +1002,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="5">
         <v>7</v>
       </c>
@@ -997,10 +1015,10 @@
       <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="5">
         <v>8</v>
       </c>
@@ -1018,7 +1036,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="11">
         <v>2</v>
       </c>
       <c r="B11" s="5">
@@ -1033,10 +1051,10 @@
       <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5">
         <v>10</v>
       </c>
@@ -1054,7 +1072,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5">
         <v>11</v>
       </c>
@@ -1067,10 +1085,10 @@
       <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="5">
         <v>12</v>
       </c>
@@ -1088,7 +1106,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="5">
         <v>13</v>
       </c>
@@ -1101,10 +1119,10 @@
       <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="11">
         <v>3</v>
       </c>
       <c r="B16" s="5">
@@ -1124,7 +1142,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5">
         <v>15</v>
       </c>
@@ -1137,10 +1155,10 @@
       <c r="E17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5">
         <v>16</v>
       </c>
@@ -1153,10 +1171,10 @@
       <c r="E18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="17"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5">
         <v>17</v>
       </c>
@@ -1169,10 +1187,10 @@
       <c r="E19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="5">
         <v>18</v>
       </c>
@@ -1185,10 +1203,10 @@
       <c r="E20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="5">
         <v>19</v>
       </c>
@@ -1201,12 +1219,12 @@
       <c r="E21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="5">
         <v>20</v>
       </c>
@@ -1224,7 +1242,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="5">
         <v>21</v>
       </c>
@@ -1237,10 +1255,10 @@
       <c r="E23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F23" s="17"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5">
         <v>22</v>
       </c>
@@ -1253,10 +1271,10 @@
       <c r="E24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="5">
         <v>23</v>
       </c>
@@ -1274,71 +1292,91 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="5">
         <v>24</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="17"/>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="5">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="5">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="14" t="s">
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="5">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="F29" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="5">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="18"/>
+      <c r="D30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="11">
         <v>4</v>
       </c>
       <c r="B31" s="5">
@@ -1353,48 +1391,66 @@
       <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="5">
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="14"/>
+      <c r="D32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="5">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="14"/>
+      <c r="D33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="5">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="14"/>
+      <c r="D34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="11">
         <v>5</v>
       </c>
       <c r="B35" s="5">
@@ -1403,177 +1459,244 @@
       <c r="C35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="14"/>
+      <c r="D35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="5">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="14"/>
+      <c r="D36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="5">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="14"/>
+      <c r="D37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="A38" s="12"/>
       <c r="B38" s="5">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="14"/>
+      <c r="D38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="A39" s="12"/>
       <c r="B39" s="5">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="14"/>
+      <c r="D39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="9"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="5">
         <v>38</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="14"/>
+      <c r="D40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="3">
         <v>39</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="14"/>
+      <c r="D41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="3">
         <v>40</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="14"/>
+      <c r="D42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="3">
         <v>41</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="14"/>
+      <c r="D43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="14" t="s">
+      <c r="D44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="14"/>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="14"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="14"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
+      <c r="A48" s="12"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="14"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="14"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="14"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:F51"/>
   <mergeCells count="15">
     <mergeCell ref="A35:A51"/>
     <mergeCell ref="A1:F1"/>
